--- a/TrialCondition_E.xlsx
+++ b/TrialCondition_E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6C692B-8ABC-1148-96B2-84EDB3ED70AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229B990-7F40-764D-9691-271A27248738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{AC0DA33C-FC7F-3E44-8994-3251F19D7984}"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15800" xr2:uid="{AC0DA33C-FC7F-3E44-8994-3251F19D7984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
-    <t>images/sA-M-ver4.jpg</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>senioradult</t>
   </si>
   <si>
-    <t>images/sA-M-ver7.jpg</t>
-  </si>
-  <si>
-    <t>images/sA-F-ver1.jpg</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>images/sA-F-ver7.jpg</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -64,6 +52,18 @@
   </si>
   <si>
     <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Images/sA-M-ver4.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-M-ver7.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-F-ver1.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-F-ver7.jpg</t>
   </si>
 </sst>
 </file>
@@ -418,64 +418,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
